--- a/Paper_resultados/Descriptive_analysis/05_Chi_2_Fisher/xlsx/Chi_2.xlsx
+++ b/Paper_resultados/Descriptive_analysis/05_Chi_2_Fisher/xlsx/Chi_2.xlsx
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>7.617408941159746e-32</v>
+        <v>7.617408941159746e-032</v>
       </c>
     </row>
   </sheetData>

--- a/Paper_resultados/Descriptive_analysis/05_Chi_2_Fisher/xlsx/Chi_2.xlsx
+++ b/Paper_resultados/Descriptive_analysis/05_Chi_2_Fisher/xlsx/Chi_2.xlsx
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>7.617408941159746e-032</v>
+        <v>7.617408941159746e-32</v>
       </c>
     </row>
   </sheetData>
